--- a/tabular/refseq-lineage/ifnl-curated-side-data-testudines.xlsx
+++ b/tabular/refseq-lineage/ifnl-curated-side-data-testudines.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/host/IFNL-GLUE/tabular/refseq-lineage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F954F1A-C64E-394F-A2E2-F69CC6F2B572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64A5D968-FC6E-7E41-9170-C25CC230399A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11980" yWindow="5900" windowWidth="27640" windowHeight="16940" xr2:uid="{DD21E6CE-7B4D-F149-BEBB-6FE924072C33}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="50">
   <si>
     <t>IFNL</t>
   </si>
@@ -175,6 +175,15 @@
   </si>
   <si>
     <t>Dermochelys coriacea</t>
+  </si>
+  <si>
+    <t>Chrysemys picta bellii</t>
+  </si>
+  <si>
+    <t>XM_008173201</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -576,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A64A92CA-76CA-A646-8B4B-AD802772EA7E}">
-  <dimension ref="A1:R23"/>
+  <dimension ref="A1:R24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A1:R23"/>
+      <selection activeCell="R24" sqref="A1:R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1347,7 +1356,43 @@
       <c r="O23" s="5"/>
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
-      <c r="R23" s="5"/>
+      <c r="R23" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="5" t="s">
+        <v>49</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/tabular/refseq-lineage/ifnl-curated-side-data-testudines.xlsx
+++ b/tabular/refseq-lineage/ifnl-curated-side-data-testudines.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/host/IFNL-GLUE/tabular/refseq-lineage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F2BEC6-3DC3-3841-A00B-C2F10C066E0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C10A6AD-9EE5-3D44-BA5B-EEB2448D9135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18060" yWindow="8280" windowWidth="27640" windowHeight="16940" xr2:uid="{DD21E6CE-7B4D-F149-BEBB-6FE924072C33}"/>
   </bookViews>
@@ -45,9 +45,6 @@
     <t>gene_id</t>
   </si>
   <si>
-    <t>clade</t>
-  </si>
-  <si>
     <t>Superorder</t>
   </si>
   <si>
@@ -180,9 +177,6 @@
     <t>Class</t>
   </si>
   <si>
-    <t>Order</t>
-  </si>
-  <si>
     <t>Geoemydidae</t>
   </si>
   <si>
@@ -214,13 +208,19 @@
   </si>
   <si>
     <t>Chrysemys</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Species_order</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -251,8 +251,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -271,6 +280,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF660066"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -284,7 +299,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -307,6 +322,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -624,7 +640,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="A1:L25"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -640,66 +656,66 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" s="6">
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
@@ -707,31 +723,31 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
@@ -739,31 +755,31 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
@@ -771,31 +787,31 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
@@ -803,31 +819,31 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
@@ -835,31 +851,31 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7" s="6">
         <v>1</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
@@ -867,31 +883,31 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" s="6">
         <v>1</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
@@ -899,31 +915,31 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" s="6">
         <v>1</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
@@ -931,31 +947,31 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" s="6">
         <v>1</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
@@ -963,31 +979,31 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" s="6">
         <v>1</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
@@ -995,31 +1011,31 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" s="6">
         <v>1</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
@@ -1027,31 +1043,31 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" s="6">
         <v>1</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
@@ -1059,31 +1075,31 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" s="6">
         <v>1</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
@@ -1091,31 +1107,31 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" s="6">
         <v>1</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
@@ -1123,31 +1139,31 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C16" s="6">
         <v>1</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
@@ -1155,31 +1171,31 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17" s="6">
         <v>1</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
@@ -1187,31 +1203,31 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C18" s="6">
         <v>1</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
@@ -1219,31 +1235,31 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C19" s="6">
         <v>1</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
@@ -1251,31 +1267,31 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C20" s="6">
         <v>1</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
@@ -1283,31 +1299,31 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C21" s="6">
         <v>1</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
@@ -1315,31 +1331,31 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C22" s="6">
         <v>1</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
@@ -1347,99 +1363,99 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C23" s="6">
         <v>1</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
       <c r="L23" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C24" s="6">
         <v>1</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
       <c r="L24" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C25" s="6">
         <v>1</v>
       </c>
       <c r="D25" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H25" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E25" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H25" s="6" t="s">
+      <c r="I25" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>46</v>
       </c>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>

--- a/tabular/refseq-lineage/ifnl-curated-side-data-testudines.xlsx
+++ b/tabular/refseq-lineage/ifnl-curated-side-data-testudines.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/host/IFNL-GLUE/tabular/refseq-lineage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C10A6AD-9EE5-3D44-BA5B-EEB2448D9135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9665CF98-439A-014D-85A0-7C9ED50516CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18060" yWindow="8280" windowWidth="27640" windowHeight="16940" xr2:uid="{DD21E6CE-7B4D-F149-BEBB-6FE924072C33}"/>
   </bookViews>
@@ -156,9 +156,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>IFNL-Testudines</t>
-  </si>
-  <si>
     <t>XM_030580530</t>
   </si>
   <si>
@@ -214,6 +211,9 @@
   </si>
   <si>
     <t>Species_order</t>
+  </si>
+  <si>
+    <t>IFNL-Testudines-1</t>
   </si>
 </sst>
 </file>
@@ -640,7 +640,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -656,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>2</v>
@@ -665,13 +665,13 @@
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>4</v>
@@ -694,7 +694,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="C2" s="6">
         <v>1</v>
@@ -703,19 +703,19 @@
         <v>32</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
@@ -726,7 +726,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -735,19 +735,19 @@
         <v>32</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
@@ -758,7 +758,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
@@ -767,19 +767,19 @@
         <v>32</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
@@ -790,7 +790,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
@@ -799,19 +799,19 @@
         <v>32</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
@@ -822,7 +822,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
@@ -831,19 +831,19 @@
         <v>32</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
@@ -854,7 +854,7 @@
         <v>14</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="C7" s="6">
         <v>1</v>
@@ -863,19 +863,19 @@
         <v>32</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
@@ -886,7 +886,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="C8" s="6">
         <v>1</v>
@@ -895,19 +895,19 @@
         <v>32</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
@@ -918,7 +918,7 @@
         <v>16</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="C9" s="6">
         <v>1</v>
@@ -927,19 +927,19 @@
         <v>32</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
@@ -950,7 +950,7 @@
         <v>17</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="C10" s="6">
         <v>1</v>
@@ -959,19 +959,19 @@
         <v>32</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
@@ -982,7 +982,7 @@
         <v>18</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="C11" s="6">
         <v>1</v>
@@ -991,19 +991,19 @@
         <v>32</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
@@ -1014,7 +1014,7 @@
         <v>19</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="C12" s="6">
         <v>1</v>
@@ -1023,19 +1023,19 @@
         <v>32</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
@@ -1046,7 +1046,7 @@
         <v>20</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="C13" s="6">
         <v>1</v>
@@ -1055,19 +1055,19 @@
         <v>32</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
@@ -1078,7 +1078,7 @@
         <v>21</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="C14" s="6">
         <v>1</v>
@@ -1087,19 +1087,19 @@
         <v>32</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
@@ -1110,7 +1110,7 @@
         <v>22</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="C15" s="6">
         <v>1</v>
@@ -1119,19 +1119,19 @@
         <v>32</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
@@ -1142,7 +1142,7 @@
         <v>23</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="C16" s="6">
         <v>1</v>
@@ -1151,19 +1151,19 @@
         <v>32</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
@@ -1174,7 +1174,7 @@
         <v>24</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="C17" s="6">
         <v>1</v>
@@ -1183,19 +1183,19 @@
         <v>32</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
@@ -1206,7 +1206,7 @@
         <v>25</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="C18" s="6">
         <v>1</v>
@@ -1215,19 +1215,19 @@
         <v>32</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
@@ -1238,7 +1238,7 @@
         <v>26</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="C19" s="6">
         <v>1</v>
@@ -1247,19 +1247,19 @@
         <v>36</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H19" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I19" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
@@ -1270,7 +1270,7 @@
         <v>27</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="C20" s="6">
         <v>1</v>
@@ -1279,19 +1279,19 @@
         <v>36</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H20" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I20" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
@@ -1302,7 +1302,7 @@
         <v>28</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="C21" s="6">
         <v>1</v>
@@ -1311,19 +1311,19 @@
         <v>35</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H21" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I21" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>52</v>
       </c>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
@@ -1334,7 +1334,7 @@
         <v>29</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="C22" s="6">
         <v>1</v>
@@ -1343,19 +1343,19 @@
         <v>34</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I22" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>54</v>
       </c>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
@@ -1366,7 +1366,7 @@
         <v>30</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="C23" s="6">
         <v>1</v>
@@ -1375,19 +1375,19 @@
         <v>33</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H23" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I23" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>56</v>
       </c>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
@@ -1400,7 +1400,7 @@
         <v>38</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="C24" s="6">
         <v>1</v>
@@ -1409,19 +1409,19 @@
         <v>37</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
@@ -1431,31 +1431,31 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="7" t="s">
         <v>40</v>
       </c>
+      <c r="B25" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="C25" s="6">
         <v>1</v>
       </c>
       <c r="D25" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H25" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E25" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H25" s="6" t="s">
+      <c r="I25" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>45</v>
       </c>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
